--- a/vaq ETABS/Integración de Cargas.xlsx
+++ b/vaq ETABS/Integración de Cargas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13E735-147B-45C8-AE80-4B5F1FDD426B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4483B607-A2B0-4B90-B61F-E3061A6DCA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t xml:space="preserve">Carga Muerta </t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>Estimar unos  15</t>
+  </si>
+  <si>
+    <t>Muros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muros Fachada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muros Interiores </t>
+  </si>
+  <si>
+    <t>kgf/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asumimos ese valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepiso Oficina  </t>
+  </si>
+  <si>
+    <t>Techo</t>
   </si>
 </sst>
 </file>
@@ -157,10 +178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB2349E-422E-439E-90D0-523DFC1560AA}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,13 +559,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -652,7 +673,7 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -678,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,30 +712,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>13</v>
-      </c>
-      <c r="D21">
-        <v>500</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>14</v>
       </c>
       <c r="D22">
         <v>500</v>
@@ -723,42 +736,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>300</v>
       </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>250</v>
       </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>500</v>
       </c>
-      <c r="E27" t="s">
-        <v>4</v>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>550</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>400</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/vaq ETABS/Integración de Cargas.xlsx
+++ b/vaq ETABS/Integración de Cargas.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4483B607-A2B0-4B90-B61F-E3061A6DCA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3287CBAF-E57D-4173-A715-6C32BD7C3A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t xml:space="preserve">Carga Muerta </t>
   </si>
@@ -115,6 +116,9 @@
   </si>
   <si>
     <t>Techo</t>
+  </si>
+  <si>
+    <t>Muro de techo fachada</t>
   </si>
 </sst>
 </file>
@@ -212,7 +216,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>649431</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>183713</xdr:rowOff>
+      <xdr:rowOff>181173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,20 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB2349E-422E-439E-90D0-523DFC1560AA}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -567,22 +571,22 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -603,7 +607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -614,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -629,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -644,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,12 +661,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -675,7 +679,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -687,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -699,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -712,20 +716,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -736,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -747,12 +751,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -763,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -774,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -785,12 +789,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -804,7 +808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -815,19 +819,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>26</v>
       </c>
     </row>

--- a/vaq ETABS/Integración de Cargas.xlsx
+++ b/vaq ETABS/Integración de Cargas.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3287CBAF-E57D-4173-A715-6C32BD7C3A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F2906-F5A6-4ECB-842A-C9769C05B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">Carga Muerta </t>
   </si>
@@ -97,9 +96,6 @@
     <t>Estimar unos  15</t>
   </si>
   <si>
-    <t>Muros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Muros Fachada </t>
   </si>
   <si>
@@ -115,10 +111,16 @@
     <t xml:space="preserve">Entrepiso Oficina  </t>
   </si>
   <si>
-    <t>Techo</t>
-  </si>
-  <si>
     <t>Muro de techo fachada</t>
+  </si>
+  <si>
+    <t>CARGA VIVA DE TECHO</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUROS </t>
   </si>
 </sst>
 </file>
@@ -551,18 +553,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB2349E-422E-439E-90D0-523DFC1560AA}">
   <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -571,22 +573,22 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -607,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -618,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -633,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -661,12 +663,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -679,7 +681,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -691,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -703,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -716,20 +718,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -740,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -751,12 +753,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -767,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -778,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -789,64 +791,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>24</v>
       </c>
       <c r="D31">
         <v>550</v>
       </c>
       <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
         <v>26</v>
       </c>
-      <c r="F31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>400</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>150</v>
       </c>
       <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/vaq ETABS/Integración de Cargas.xlsx
+++ b/vaq ETABS/Integración de Cargas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F2906-F5A6-4ECB-842A-C9769C05B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBF19B-4D16-419A-8E53-8E3C649BD41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">Carga Muerta </t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t xml:space="preserve">MUROS </t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peso sismico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor sismico </t>
   </si>
 </sst>
 </file>
@@ -180,13 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB2349E-422E-439E-90D0-523DFC1560AA}">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -834,13 +846,25 @@
       <c r="F33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
+        <v>538.22320000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I34" s="5">
+        <v>327.7627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <f>SUM(I33:I34)</f>
+        <v>865.98590000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -849,6 +873,35 @@
       </c>
       <c r="E36" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>285.22000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f>I35+0.25*I37</f>
+        <v>937.29089999999997</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40">
+        <v>0.12787499999999999</v>
+      </c>
+      <c r="K40" s="1">
+        <f>K38*J40</f>
+        <v>119.85607383749999</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/vaq ETABS/Integración de Cargas.xlsx
+++ b/vaq ETABS/Integración de Cargas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBF19B-4D16-419A-8E53-8E3C649BD41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210DB5D-C1C9-40E6-80F5-54DBC635C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B9580F0-C4B5-4B44-8DAB-0DA8E4F7086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t xml:space="preserve">Carga Muerta </t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valor sismico </t>
+  </si>
+  <si>
+    <t>Total Techo</t>
   </si>
 </sst>
 </file>
@@ -194,11 +197,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,7 +233,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>649431</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>181173</xdr:rowOff>
+      <xdr:rowOff>179903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -565,42 +568,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB2349E-422E-439E-90D0-523DFC1560AA}">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -621,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -632,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -647,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -662,7 +665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -675,12 +678,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -693,7 +696,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -705,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,9 +720,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -730,20 +733,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -754,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -765,12 +768,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -781,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -792,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -803,12 +806,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -822,7 +825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -833,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -846,16 +849,16 @@
       <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>538.22320000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I34" s="5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I34" s="4">
         <v>327.7627</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -864,7 +867,7 @@
         <v>865.98590000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -875,12 +878,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I37">
         <v>285.22000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K38">
         <f>I35+0.25*I37</f>
         <v>937.29089999999997</v>
@@ -889,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I40" t="s">
         <v>32</v>
       </c>
